--- a/Monthly/xlsxFiles/08.elspot-prices_2019_monthly.xlsx
+++ b/Monthly/xlsxFiles/08.elspot-prices_2019_monthly.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simhaj-local\Desktop\Assignment_\Elspot.Price\Monthly.SEK\xlsxFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simhaj-local\Documents\GitHub\NordPool_Price\Monthly\xlsxFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="0" windowWidth="21624" windowHeight="9780"/>
+    <workbookView xWindow="2832" yWindow="0" windowWidth="21624" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="elspot-prices_2019_monthly_sek" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Elspot prices in SEK/MWh</t>
   </si>
@@ -84,220 +84,16 @@
     <t>19 - Jan</t>
   </si>
   <si>
-    <t>551,98</t>
-  </si>
-  <si>
-    <t>549,18</t>
-  </si>
-  <si>
-    <t>558,04</t>
-  </si>
-  <si>
-    <t>563,61</t>
-  </si>
-  <si>
-    <t>572,50</t>
-  </si>
-  <si>
-    <t>516,32</t>
-  </si>
-  <si>
-    <t>530,28</t>
-  </si>
-  <si>
-    <t>572,77</t>
-  </si>
-  <si>
-    <t>570,28</t>
-  </si>
-  <si>
-    <t>569,90</t>
-  </si>
-  <si>
-    <t>538,24</t>
-  </si>
-  <si>
-    <t>525,63</t>
-  </si>
-  <si>
-    <t>572,35</t>
-  </si>
-  <si>
-    <t>581,15</t>
-  </si>
-  <si>
-    <t>579,90</t>
-  </si>
-  <si>
     <t>19 - Feb</t>
   </si>
   <si>
-    <t>480,70</t>
-  </si>
-  <si>
-    <t>473,64</t>
-  </si>
-  <si>
-    <t>477,37</t>
-  </si>
-  <si>
-    <t>483,05</t>
-  </si>
-  <si>
-    <t>490,12</t>
-  </si>
-  <si>
-    <t>448,77</t>
-  </si>
-  <si>
-    <t>460,48</t>
-  </si>
-  <si>
-    <t>485,90</t>
-  </si>
-  <si>
-    <t>485,12</t>
-  </si>
-  <si>
-    <t>485,36</t>
-  </si>
-  <si>
-    <t>474,93</t>
-  </si>
-  <si>
-    <t>474,91</t>
-  </si>
-  <si>
-    <t>495,56</t>
-  </si>
-  <si>
-    <t>492,30</t>
-  </si>
-  <si>
     <t>19 - Mar</t>
   </si>
   <si>
-    <t>429,09</t>
-  </si>
-  <si>
-    <t>413,19</t>
-  </si>
-  <si>
-    <t>413,76</t>
-  </si>
-  <si>
-    <t>415,30</t>
-  </si>
-  <si>
-    <t>420,25</t>
-  </si>
-  <si>
-    <t>352,59</t>
-  </si>
-  <si>
-    <t>374,18</t>
-  </si>
-  <si>
-    <t>441,38</t>
-  </si>
-  <si>
-    <t>441,25</t>
-  </si>
-  <si>
-    <t>431,92</t>
-  </si>
-  <si>
-    <t>431,91</t>
-  </si>
-  <si>
-    <t>421,22</t>
-  </si>
-  <si>
-    <t>420,90</t>
-  </si>
-  <si>
-    <t>420,06</t>
-  </si>
-  <si>
     <t>19 - Apr</t>
   </si>
   <si>
-    <t>427,81</t>
-  </si>
-  <si>
-    <t>415,91</t>
-  </si>
-  <si>
-    <t>415,98</t>
-  </si>
-  <si>
-    <t>418,38</t>
-  </si>
-  <si>
-    <t>434,40</t>
-  </si>
-  <si>
-    <t>409,51</t>
-  </si>
-  <si>
-    <t>418,14</t>
-  </si>
-  <si>
-    <t>433,79</t>
-  </si>
-  <si>
-    <t>433,30</t>
-  </si>
-  <si>
-    <t>433,08</t>
-  </si>
-  <si>
-    <t>432,40</t>
-  </si>
-  <si>
-    <t>442,21</t>
-  </si>
-  <si>
-    <t>456,28</t>
-  </si>
-  <si>
     <t>19 - May</t>
-  </si>
-  <si>
-    <t>408,98</t>
-  </si>
-  <si>
-    <t>374,00</t>
-  </si>
-  <si>
-    <t>387,11</t>
-  </si>
-  <si>
-    <t>428,04</t>
-  </si>
-  <si>
-    <t>402,06</t>
-  </si>
-  <si>
-    <t>409,82</t>
-  </si>
-  <si>
-    <t>423,85</t>
-  </si>
-  <si>
-    <t>423,87</t>
-  </si>
-  <si>
-    <t>414,35</t>
-  </si>
-  <si>
-    <t>454,68</t>
-  </si>
-  <si>
-    <t>475,65</t>
-  </si>
-  <si>
-    <t>473,87</t>
   </si>
   <si>
     <t>19 - Jun</t>
@@ -1135,7 +931,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S1"/>
+      <selection sqref="A1:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,290 +1052,290 @@
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>35</v>
+      <c r="B4" s="5">
+        <v>551.98</v>
+      </c>
+      <c r="C4" s="5">
+        <v>549.17999999999995</v>
+      </c>
+      <c r="D4" s="5">
+        <v>549.17999999999995</v>
+      </c>
+      <c r="E4" s="5">
+        <v>558.04</v>
+      </c>
+      <c r="F4" s="5">
+        <v>563.61</v>
+      </c>
+      <c r="G4" s="5">
+        <v>572.5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>516.32000000000005</v>
+      </c>
+      <c r="I4" s="5">
+        <v>530.28</v>
+      </c>
+      <c r="J4" s="5">
+        <v>572.77</v>
+      </c>
+      <c r="K4" s="5">
+        <v>570.28</v>
+      </c>
+      <c r="L4" s="5">
+        <v>569.9</v>
+      </c>
+      <c r="M4" s="5">
+        <v>538.24</v>
+      </c>
+      <c r="N4" s="5">
+        <v>538.24</v>
+      </c>
+      <c r="O4" s="5">
+        <v>525.63</v>
+      </c>
+      <c r="P4" s="5">
+        <v>572.35</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>581.15</v>
+      </c>
+      <c r="R4" s="5">
+        <v>579.9</v>
       </c>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>480.7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>473.64</v>
+      </c>
+      <c r="D5" s="5">
+        <v>473.64</v>
+      </c>
+      <c r="E5" s="5">
+        <v>477.37</v>
+      </c>
+      <c r="F5" s="5">
+        <v>483.05</v>
+      </c>
+      <c r="G5" s="5">
+        <v>490.12</v>
+      </c>
+      <c r="H5" s="5">
+        <v>448.77</v>
+      </c>
+      <c r="I5" s="5">
+        <v>460.48</v>
+      </c>
+      <c r="J5" s="5">
+        <v>485.9</v>
+      </c>
+      <c r="K5" s="5">
+        <v>485.12</v>
+      </c>
+      <c r="L5" s="5">
+        <v>485.36</v>
+      </c>
+      <c r="M5" s="5">
+        <v>474.93</v>
+      </c>
+      <c r="N5" s="5">
+        <v>474.93</v>
+      </c>
+      <c r="O5" s="5">
+        <v>474.91</v>
+      </c>
+      <c r="P5" s="5">
+        <v>495.56</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>495.56</v>
+      </c>
+      <c r="R5" s="5">
+        <v>492.3</v>
       </c>
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>65</v>
+        <v>22</v>
+      </c>
+      <c r="B6" s="5">
+        <v>429.09</v>
+      </c>
+      <c r="C6" s="5">
+        <v>413.19</v>
+      </c>
+      <c r="D6" s="5">
+        <v>413.19</v>
+      </c>
+      <c r="E6" s="5">
+        <v>413.76</v>
+      </c>
+      <c r="F6" s="5">
+        <v>415.3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>420.25</v>
+      </c>
+      <c r="H6" s="5">
+        <v>352.59</v>
+      </c>
+      <c r="I6" s="5">
+        <v>374.18</v>
+      </c>
+      <c r="J6" s="5">
+        <v>441.38</v>
+      </c>
+      <c r="K6" s="5">
+        <v>441.25</v>
+      </c>
+      <c r="L6" s="5">
+        <v>441.38</v>
+      </c>
+      <c r="M6" s="5">
+        <v>431.92</v>
+      </c>
+      <c r="N6" s="5">
+        <v>431.92</v>
+      </c>
+      <c r="O6" s="5">
+        <v>431.91</v>
+      </c>
+      <c r="P6" s="5">
+        <v>421.22</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>420.9</v>
+      </c>
+      <c r="R6" s="5">
+        <v>420.06</v>
       </c>
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>79</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="5">
+        <v>427.81</v>
+      </c>
+      <c r="C7" s="5">
+        <v>415.91</v>
+      </c>
+      <c r="D7" s="5">
+        <v>415.91</v>
+      </c>
+      <c r="E7" s="5">
+        <v>415.98</v>
+      </c>
+      <c r="F7" s="5">
+        <v>418.38</v>
+      </c>
+      <c r="G7" s="5">
+        <v>434.4</v>
+      </c>
+      <c r="H7" s="5">
+        <v>409.51</v>
+      </c>
+      <c r="I7" s="5">
+        <v>418.14</v>
+      </c>
+      <c r="J7" s="5">
+        <v>433.79</v>
+      </c>
+      <c r="K7" s="5">
+        <v>433.3</v>
+      </c>
+      <c r="L7" s="5">
+        <v>433.79</v>
+      </c>
+      <c r="M7" s="5">
+        <v>433.08</v>
+      </c>
+      <c r="N7" s="5">
+        <v>433.08</v>
+      </c>
+      <c r="O7" s="5">
+        <v>432.4</v>
+      </c>
+      <c r="P7" s="5">
+        <v>442.21</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>456.28</v>
+      </c>
+      <c r="R7" s="5">
+        <v>456.28</v>
       </c>
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>92</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="5">
+        <v>408.98</v>
+      </c>
+      <c r="C8" s="5">
+        <v>374</v>
+      </c>
+      <c r="D8" s="5">
+        <v>374</v>
+      </c>
+      <c r="E8" s="5">
+        <v>374</v>
+      </c>
+      <c r="F8" s="5">
+        <v>387.11</v>
+      </c>
+      <c r="G8" s="5">
+        <v>428.04</v>
+      </c>
+      <c r="H8" s="5">
+        <v>402.06</v>
+      </c>
+      <c r="I8" s="5">
+        <v>409.82</v>
+      </c>
+      <c r="J8" s="5">
+        <v>423.85</v>
+      </c>
+      <c r="K8" s="5">
+        <v>423.87</v>
+      </c>
+      <c r="L8" s="5">
+        <v>423.85</v>
+      </c>
+      <c r="M8" s="5">
+        <v>415.3</v>
+      </c>
+      <c r="N8" s="5">
+        <v>415.3</v>
+      </c>
+      <c r="O8" s="5">
+        <v>414.35</v>
+      </c>
+      <c r="P8" s="5">
+        <v>454.68</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>475.65</v>
+      </c>
+      <c r="R8" s="5">
+        <v>473.87</v>
       </c>
       <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
